--- a/hw02/Fibonacci.xlsx
+++ b/hw02/Fibonacci.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00_NCSU\Fall2019\ECE592_084_Optimization_And_Algorithms\Homeworks\ECE592084_Optimization\hw02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4162CDD5-7D60-4FE8-AA4C-E42C68EDD91D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F4BC07C-485D-463B-B296-3D0F606A0A13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{CA6C86A9-3D69-4678-AE03-258AFEFBA51A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CA6C86A9-3D69-4678-AE03-258AFEFBA51A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>Iteration</t>
   </si>
@@ -52,6 +52,51 @@
   </si>
   <si>
     <t>new int</t>
+  </si>
+  <si>
+    <t>[0.455882352941177 -0.594117647058823]</t>
+  </si>
+  <si>
+    <t>[0.587456747404844 -0.462543252595156]</t>
+  </si>
+  <si>
+    <t>[0.455882352941177 -0.594117647058823;0.587456747404844 -0.462543252595156]</t>
+  </si>
+  <si>
+    <t>[0.66890756302521 -0.38109243697479]</t>
+  </si>
+  <si>
+    <t>[0.587456747404844 -0.462543252595156;0.66890756302521 -0.38109243697479]</t>
+  </si>
+  <si>
+    <t>[0.53781512605042 -0.51218487394958]</t>
+  </si>
+  <si>
+    <t>[0.53781512605042 -0.51218487394958;0.587456747404844 -0.462543252595156]</t>
+  </si>
+  <si>
+    <t>[0.505222750865052 -0.544777249134948]</t>
+  </si>
+  <si>
+    <t>[0.505222750865052 -0.544777249134948;0.53781512605042 -0.51218487394958]</t>
+  </si>
+  <si>
+    <t>[0.554563148788927 -0.495436851211073]</t>
+  </si>
+  <si>
+    <t>[0.53781512605042 -0.51218487394958;0.554563148788927 -0.495436851211073]</t>
+  </si>
+  <si>
+    <t>[0.52166955017301 -0.52833044982699]</t>
+  </si>
+  <si>
+    <t>[0.52166955017301 -0.52833044982699;0.53781512605042 -0.51218487394958]</t>
+  </si>
+  <si>
+    <t>[0.521518938457736 -0.528481061542264]</t>
+  </si>
+  <si>
+    <t>[0.521518938457736 -0.528481061542264;0.52166955017301 -0.52833044982699]</t>
   </si>
 </sst>
 </file>
@@ -75,7 +120,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -83,12 +128,198 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -403,133 +634,203 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DB0CBA8-C3CA-4659-B218-B47A6084BD1B}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="B1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G8"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="73.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H2" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="7">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="C3" s="8">
         <v>0.38235294117647056</v>
       </c>
-      <c r="E2">
+      <c r="D3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="8">
         <v>0.28995674740484423</v>
       </c>
-      <c r="F2">
+      <c r="G3" s="8">
         <v>0.28732753588917764</v>
       </c>
+      <c r="H3" s="9" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="2">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="C4" s="1">
         <v>0.38095238095238093</v>
       </c>
-      <c r="E3">
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1">
         <v>0.28732753588917764</v>
       </c>
-      <c r="F3">
+      <c r="G4" s="1">
         <v>0.33775316008756456</v>
       </c>
+      <c r="H4" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="C5" s="1">
         <v>0.38461538461538458</v>
       </c>
-      <c r="E4">
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1">
         <v>0.27611768236706452</v>
       </c>
-      <c r="F4">
+      <c r="G5" s="1">
         <v>0.28732753588917764</v>
       </c>
+      <c r="H5" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="C6" s="1">
         <v>0.375</v>
       </c>
-      <c r="E5">
+      <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="1">
         <v>0.27679841875003741</v>
       </c>
-      <c r="F5">
+      <c r="G6" s="1">
         <v>0.27611768236706452</v>
       </c>
+      <c r="H6" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="C7" s="1">
         <v>0.4</v>
       </c>
-      <c r="E6">
+      <c r="D7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="1">
         <v>0.27611768236706452</v>
       </c>
-      <c r="F6">
+      <c r="G7" s="1">
         <v>0.27824693929894884</v>
       </c>
+      <c r="H7" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="C8" s="1">
         <v>0.33333333333333337</v>
       </c>
-      <c r="E7">
+      <c r="D8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="1">
         <v>0.27565827568815027</v>
       </c>
-      <c r="F7">
+      <c r="G8" s="1">
         <v>0.27611768236706452</v>
       </c>
+      <c r="H8" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="9" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="4">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="C9" s="5">
         <v>0.5</v>
       </c>
-      <c r="E8">
+      <c r="D9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="5">
         <v>0.27566135336838321</v>
       </c>
-      <c r="F8">
+      <c r="G9" s="5">
         <v>0.27565827568815027</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/hw02/Fibonacci.xlsx
+++ b/hw02/Fibonacci.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00_NCSU\Fall2019\ECE592_084_Optimization_And_Algorithms\Homeworks\ECE592084_Optimization\hw02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F4BC07C-485D-463B-B296-3D0F606A0A13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{893B7639-3B21-47FB-B3CD-2CD0A97D0264}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CA6C86A9-3D69-4678-AE03-258AFEFBA51A}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11385" xr2:uid="{CA6C86A9-3D69-4678-AE03-258AFEFBA51A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
   <si>
     <t>Iteration</t>
   </si>
@@ -634,10 +634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DB0CBA8-C3CA-4659-B218-B47A6084BD1B}">
-  <dimension ref="B1:H9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H2"/>
+      <selection sqref="A1:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -648,169 +648,212 @@
     <col min="8" max="8" width="73.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="10" t="s">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10">
+        <v>0.38235294117647056</v>
+      </c>
       <c r="C2" s="11" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="E2" s="11">
+        <v>0.28995674740484423</v>
+      </c>
+      <c r="F2" s="11">
+        <v>0.28732753588917764</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H2" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
       <c r="B3" s="7">
-        <v>1</v>
-      </c>
-      <c r="C3" s="8">
-        <v>0.38235294117647056</v>
+        <v>0.38095238095238093</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0.28732753588917764</v>
       </c>
       <c r="F3" s="8">
-        <v>0.28995674740484423</v>
-      </c>
-      <c r="G3" s="8">
-        <v>0.28732753588917764</v>
+        <v>0.33775316008756456</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
       <c r="B4" s="2">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.38095238095238093</v>
+        <v>0.38461538461538458</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
+      <c r="E4" s="1">
+        <v>0.27611768236706452</v>
       </c>
       <c r="F4" s="1">
         <v>0.28732753588917764</v>
       </c>
-      <c r="G4" s="1">
-        <v>0.33775316008756456</v>
+      <c r="G4" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
       <c r="B5" s="2">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.38461538461538458</v>
+        <v>0.375</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>8</v>
+      <c r="E5" s="1">
+        <v>0.27679841875003741</v>
       </c>
       <c r="F5" s="1">
         <v>0.27611768236706452</v>
       </c>
-      <c r="G5" s="1">
-        <v>0.28732753588917764</v>
+      <c r="G5" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
       <c r="B6" s="2">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.375</v>
+        <v>0.4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.27611768236706452</v>
       </c>
       <c r="F6" s="1">
-        <v>0.27679841875003741</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0.27611768236706452</v>
+        <v>0.27824693929894884</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
       <c r="B7" s="2">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.4</v>
+        <v>0.33333333333333337</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>16</v>
+      <c r="E7" s="1">
+        <v>0.27565827568815027</v>
       </c>
       <c r="F7" s="1">
         <v>0.27611768236706452</v>
       </c>
-      <c r="G7" s="1">
-        <v>0.27824693929894884</v>
+      <c r="G7" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
       <c r="B8" s="2">
-        <v>6</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.33333333333333337</v>
+        <v>0.5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>12</v>
+      <c r="E8" s="1">
+        <v>0.27566135336838321</v>
       </c>
       <c r="F8" s="1">
         <v>0.27565827568815027</v>
       </c>
-      <c r="G8" s="1">
-        <v>0.27611768236706452</v>
+      <c r="G8" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
         <v>7</v>
       </c>

--- a/hw02/Fibonacci.xlsx
+++ b/hw02/Fibonacci.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00_NCSU\Fall2019\ECE592_084_Optimization_And_Algorithms\Homeworks\ECE592084_Optimization\hw02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{893B7639-3B21-47FB-B3CD-2CD0A97D0264}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE5CDDD-1A3A-4CE7-A933-CF07A3D5FD77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11385" xr2:uid="{CA6C86A9-3D69-4678-AE03-258AFEFBA51A}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11385" xr2:uid="{6EFCE599-67BB-4E9D-9D86-6C0CC1D5B9F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>Iteration</t>
   </si>
@@ -54,49 +54,64 @@
     <t>new int</t>
   </si>
   <si>
-    <t>[0.455882352941177 -0.594117647058823]</t>
-  </si>
-  <si>
-    <t>[0.587456747404844 -0.462543252595156]</t>
-  </si>
-  <si>
-    <t>[0.455882352941177 -0.594117647058823;0.587456747404844 -0.462543252595156]</t>
-  </si>
-  <si>
-    <t>[0.66890756302521 -0.38109243697479]</t>
-  </si>
-  <si>
-    <t>[0.587456747404844 -0.462543252595156;0.66890756302521 -0.38109243697479]</t>
-  </si>
-  <si>
-    <t>[0.53781512605042 -0.51218487394958]</t>
-  </si>
-  <si>
-    <t>[0.53781512605042 -0.51218487394958;0.587456747404844 -0.462543252595156]</t>
-  </si>
-  <si>
-    <t>[0.505222750865052 -0.544777249134948]</t>
-  </si>
-  <si>
-    <t>[0.505222750865052 -0.544777249134948;0.53781512605042 -0.51218487394958]</t>
-  </si>
-  <si>
-    <t>[0.554563148788927 -0.495436851211073]</t>
-  </si>
-  <si>
-    <t>[0.53781512605042 -0.51218487394958;0.554563148788927 -0.495436851211073]</t>
-  </si>
-  <si>
-    <t>[0.52166955017301 -0.52833044982699]</t>
-  </si>
-  <si>
-    <t>[0.52166955017301 -0.52833044982699;0.53781512605042 -0.51218487394958]</t>
-  </si>
-  <si>
-    <t>[0.521518938457736 -0.528481061542264]</t>
-  </si>
-  <si>
-    <t>[0.521518938457736 -0.528481061542264;0.52166955017301 -0.52833044982699]</t>
+    <t>range</t>
+  </si>
+  <si>
+    <t>[0.521910112359551 -0.528089887640449]</t>
+  </si>
+  <si>
+    <t>[0.628089887640449 -0.421910112359551]</t>
+  </si>
+  <si>
+    <t>[0.35 -0.7;0.8 -0.25]</t>
+  </si>
+  <si>
+    <t>[0.456179775280899 -0.593820224719101]</t>
+  </si>
+  <si>
+    <t>[0.35 -0.7;0.628089887640449 -0.421910112359551]</t>
+  </si>
+  <si>
+    <t>[0.562359550561798 -0.487640449438202]</t>
+  </si>
+  <si>
+    <t>[0.456179775280899 -0.593820224719101;0.628089887640449 -0.421910112359551]</t>
+  </si>
+  <si>
+    <t>[0.496629213483146 -0.553370786516854]</t>
+  </si>
+  <si>
+    <t>[0.456179775280899 -0.593820224719101;0.562359550561798 -0.487640449438202]</t>
+  </si>
+  <si>
+    <t>[0.537078651685393 -0.512921348314607]</t>
+  </si>
+  <si>
+    <t>[0.496629213483146 -0.553370786516854;0.562359550561798 -0.487640449438202]</t>
+  </si>
+  <si>
+    <t>[0.511797752808989 -0.538202247191011]</t>
+  </si>
+  <si>
+    <t>[0.496629213483146 -0.553370786516854;0.537078651685393 -0.512921348314607]</t>
+  </si>
+  <si>
+    <t>[0.526966292134831 -0.523033707865168]</t>
+  </si>
+  <si>
+    <t>[0.511797752808989 -0.538202247191011;0.537078651685393 -0.512921348314607]</t>
+  </si>
+  <si>
+    <t>[0.532022471910112 -0.517977528089888]</t>
+  </si>
+  <si>
+    <t>[0.521910112359551 -0.528089887640449;0.537078651685393 -0.512921348314607]</t>
+  </si>
+  <si>
+    <t>[0.526865168539326 -0.523134831460674]</t>
+  </si>
+  <si>
+    <t>[0.521910112359551 -0.528089887640449;0.532022471910112 -0.517977528089888]</t>
   </si>
 </sst>
 </file>
@@ -120,7 +135,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -128,198 +143,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -633,22 +462,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DB0CBA8-C3CA-4659-B218-B47A6084BD1B}">
-  <dimension ref="A1:H9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DF9BFF9-C293-415D-A728-614C435C01FE}">
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="73.7109375" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -670,210 +493,242 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="10">
-        <v>0.38235294117647056</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="11" t="s">
+      <c r="B2">
+        <v>0.3820224719101124</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="11">
-        <v>0.28995674740484423</v>
-      </c>
-      <c r="F2" s="11">
-        <v>0.28732753588917764</v>
-      </c>
-      <c r="G2" s="11" t="s">
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="12" t="s">
-        <v>6</v>
+      <c r="E2">
+        <v>0.27565364221689187</v>
+      </c>
+      <c r="F2">
+        <v>0.30750757480116148</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <v>0.63639610306789274</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="7">
-        <v>0.38095238095238093</v>
-      </c>
-      <c r="C3" s="8" t="s">
+      <c r="B3">
+        <v>0.38181818181818183</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="8">
-        <v>0.28732753588917764</v>
-      </c>
-      <c r="F3" s="8">
-        <v>0.33775316008756456</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>9</v>
+      <c r="E3">
+        <v>0.28983366999116272</v>
+      </c>
+      <c r="F3">
+        <v>0.27565364221689187</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3">
+        <v>0.3932784906599337</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
-        <v>0.38461538461538458</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="B4">
+        <v>0.38235294117647056</v>
+      </c>
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="1">
-        <v>0.27611768236706452</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0.28732753588917764</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>11</v>
+      <c r="E4">
+        <v>0.27565364221689187</v>
+      </c>
+      <c r="F4">
+        <v>0.27981220805453855</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4">
+        <v>0.24311761240795904</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
-        <v>0.375</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.27679841875003741</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0.27611768236706452</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="B5">
+        <v>0.38095238095238093</v>
+      </c>
+      <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>13</v>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>0.27803970458275468</v>
+      </c>
+      <c r="F5">
+        <v>0.27565364221689187</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5">
+        <v>0.15016087825197469</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0.27611768236706452</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0.27824693929894884</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="B6">
+        <v>0.38461538461538458</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>15</v>
+      <c r="E6">
+        <v>0.27565364221689187</v>
+      </c>
+      <c r="F6">
+        <v>0.27606268147961116</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6">
+        <v>9.2956734155984308E-2</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
-        <v>0.33333333333333337</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.27565827568815027</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0.27611768236706452</v>
-      </c>
-      <c r="G7" s="1" t="s">
+      <c r="B7">
+        <v>0.375</v>
+      </c>
+      <c r="C7" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>17</v>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>0.27614789799267764</v>
+      </c>
+      <c r="F7">
+        <v>0.27565364221689187</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7">
+        <v>5.7204144095990367E-2</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0.27566135336838321</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0.27565827568815027</v>
-      </c>
-      <c r="G8" s="1" t="s">
+      <c r="B8">
+        <v>0.4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="4">
-        <v>7</v>
-      </c>
-      <c r="C9" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="5">
-        <v>0.27566135336838321</v>
-      </c>
-      <c r="G9" s="5">
-        <v>0.27565827568815027</v>
-      </c>
-      <c r="H9" s="6" t="s">
+      <c r="E8">
+        <v>0.27565364221689187</v>
+      </c>
+      <c r="F8">
+        <v>0.2756365989142785</v>
+      </c>
+      <c r="G8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8">
+        <v>3.5752590059993983E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.33333333333333337</v>
+      </c>
+      <c r="C9" t="s">
         <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>0.2756365989142785</v>
+      </c>
+      <c r="F9">
+        <v>0.27577294533518498</v>
+      </c>
+      <c r="G9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9">
+        <v>2.1451554035996342E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0.49</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>0.27563543656104034</v>
+      </c>
+      <c r="F10">
+        <v>0.2756365989142785</v>
+      </c>
+      <c r="G10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10">
+        <v>1.4301036023997562E-2</v>
       </c>
     </row>
   </sheetData>
